--- a/similarities/split_global/harmonic_similarity_timestamps_80.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'C:min7', 'F:7', 'Bb']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G', 'A:min7', 'D:7', 'G']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.910000', '0:00:10.040000')]</t>
+          <t>('0:02:02.780000', '0:02:17.555000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:50.310000')]</t>
+          <t>('0:01:56.690000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=5.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:01:38.060000', '0:01:45.600000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:01:40.260000', '0:01:46.300000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=100.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C#:min', 'G#:7', 'C#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
+          <t>('0:00:24.282834', '0:00:31.446190')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:57.540000', '0:01:06.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=57.54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+          <t>('0:00:23.140000', '0:00:30.460000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+          <t>('0:00:23.980000', '0:00:31.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:00.780000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:41.655000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['G#:maj', 'C#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'G:maj', 'D/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.651995', '0:00:24.735623')]</t>
+          <t>('0:00:09.640000', '0:00:11.380000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:25.390000', '0:00:37.670000')]</t>
+          <t>('0:01:08.669000', '0:01:14.662000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=25.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['Bb', 'Bb:7', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:00:31.370000', '0:00:43.560000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:36.749660', '0:01:51.796190')]</t>
+          <t>('0:00:48.170328', '0:00:59.292687')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=96.74966']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000')]</t>
+          <t>('0:00:19.820000', '0:00:29.100000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:40.600000', '0:00:45.980000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=40.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['D:7', 'G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:23.420000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+          <t>('0:00:07.900000', '0:00:21.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.820000', '0:00:29.100000')]</t>
+          <t>('0:00:37.995918', '0:01:09.517005')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:02:03.220000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb', 'E:dim7', 'Bb'], ['Bb', 'F:7', 'Bb'], ['E:dim7', 'Bb', 'F:7'], ['C:min', 'F:7', 'Bb']]</t>
+          <t>['C#:maj/F', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'D:dim7', 'Ab/5'], ['Ab', 'Eb:7', 'Ab'], ['D:dim7', 'Ab', 'Eb:7'], ['Bb:min', 'Eb:7', 'Ab']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.240000', '0:00:16.880000'), ('0:00:07.590000', '0:00:14.680000'), ('0:00:15.800000', '0:00:17.410000'), ('0:00:26.110000', '0:00:31.880000')]</t>
+          <t>('0:00:35.220000', '0:00:40')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.340000', '0:00:23.260000'), ('0:00:25.220000', '0:00:27.170000'), ('0:01:02.360000', '0:01:05.610000'), ('0:00:03.650000', '0:00:06.290000')]</t>
+          <t>('0:00:43.320000', '0:00:45.080000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=15.24', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=15.8', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.11']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=21.34', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=62.36', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.32</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:25.477221')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:10.148000', '0:02:12.444000')]</t>
+          <t>('0:01:14.700000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.148']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:40.080000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:00:01.500000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
